--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -429,91 +429,91 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>ingredients</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instructions</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>servings</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>instructions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>89eb4a6e7cbc11ef8ebe1c9957818fb1</t>
+          <t>cb6ec5147cfa11ef83a11c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Ingredient(name: Пшеничная мука, unit_value: 100, unit_name: гр), Ingredient(name: Сахар, unit_value: 80, unit_name: гр), Ingredient(name: Сливочное масло, unit_value: 70, unit_name: гр), Ingredient(name: Яйца, unit_value: 1, unit_name: шт), Ingredient(name: Ванилин(щепотка), unit_value: 5, unit_name: гр)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1. Как испечь вафли хрустящие в вафельнице? Подготовьте необходимые продукты. Из данного количества у меня получилось 8 штук диаметром около 10 см., 2. Масло положите в сотейник с толстым дном. Растопите его на маленьком огне на плите, на водяной бане либо в микроволновке., 3. Добавьте в теплое масло сахар. Перемешайте венчиком до полного растворения сахара. От тепла сахар довольно быстро растает., 4. Добавьте в масло яйцо. Предварительно все-таки проверьте масло, не горячее ли оно, иначе яйцо может свариться. Перемешайте яйцо с маслом до однородности., 5. Всыпьте муку, добавьте ванилин., 6. Перемешайте массу венчиком до состояния гладкого однородного теста., 7. Разогрейте вафельницу по инструкции к ней. У меня очень старая, еще советских времен электровафельница. Она может и не очень красивая, но печет замечательно!, 8. Я не смазываю вафельницу маслом, в тесте достаточно жира, да и к ней уже давно ничего не прилипает. Но вы смотрите по своей модели. Выкладывайте тесто по столовой ложке. Можно класть немного меньше теста, тогда вафли будут меньше и их получится больше., 9. Пеките вафли несколько минут до золотистого цвета. Осторожно откройте вафельницу, она очень горячая! Снимите вафлю лопаткой. Горячая она очень мягкая, как блинчик.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>ВАФЛИ ХРУСТЯЩИЕ В ВАФЕЛЬНИЦЕ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>`10 порций`</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>`20 мин`</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ingredient(name: Пшеничная мука, unit_value: 100, unit_name: гр), Ingredient(name: Сахар, unit_value: 80, unit_name: гр), Ingredient(name: Сливочное масло, unit_value: 70, unit_name: гр), Ingredient(name: Яйца, unit_value: 1, unit_name: шт), Ingredient(name: Ванилин(щепотка), unit_value: 5, unit_name: гр)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1. Как испечь вафли хрустящие в вафельнице? Подготовьте необходимые продукты. Из данного количества у меня получилось 8 штук диаметром около 10 см., 2. Масло положите в сотейник с толстым дном. Растопите его на маленьком огне на плите, на водяной бане либо в микроволновке., 3. Добавьте в теплое масло сахар. Перемешайте венчиком до полного растворения сахара. От тепла сахар довольно быстро растает., 4. Добавьте в масло яйцо. Предварительно все-таки проверьте масло, не горячее ли оно, иначе яйцо может свариться. Перемешайте яйцо с маслом до однородности., 5. Всыпьте муку, добавьте ванилин., 6. Перемешайте массу венчиком до состояния гладкого однородного теста., 7. Разогрейте вафельницу по инструкции к ней. У меня очень старая, еще советских времен электровафельница. Она может и не очень красивая, но печет замечательно!, 8. Я не смазываю вафельницу маслом, в тесте достаточно жира, да и к ней уже давно ничего не прилипает. Но вы смотрите по своей модели. Выкладывайте тесто по столовой ложке. Можно класть немного меньше теста, тогда вафли будут меньше и их получится больше., 9. Пеките вафли несколько минут до золотистого цвета. Осторожно откройте вафельницу, она очень горячая! Снимите вафлю лопаткой. Горячая она очень мягкая, как блинчик.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>89eb4a777cbc11efb00b1c9957818fb1</t>
+          <t>cb6ec51d7cfa11ef896f1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Ingredient(name: Пшеничная мука, unit_value: 120, unit_name: гр), Ingredient(name: Какао-порошок, unit_value: 30, unit_name: гр), Ingredient(name: Сахар, unit_value: 90, unit_name: гр), Ingredient(name: Разрыхлитель, unit_value: 1, unit_name: ч.л.), Ingredient(name: Сливочное масло, unit_value: 60, unit_name: гр), Ingredient(name: Яйца, unit_value: 2, unit_name: шт), Ingredient(name: Молоко, unit_value: 150, unit_name: мл), Ingredient(name: Ванильный сахар, unit_value: 10, unit_name: гр)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1. Подготовьте все ингредиенты. Просейте муку, чтобы вафли получились нежными и воздушными., 2. В глубокой миске смешайте пшеничную муку, какао-порошок и разрыхлитель., 3. В отдельной посуде растопите сливочное масло на медленном огне или в микроволновке., 4. Добавьте к растопленному маслу сахар, ванильный сахар и яйца. Взбейте венчиком до однородной массы., 5. Постепенно введите молоко в яичную смесь, затем добавьте сухие ингредиенты. Перемешайте до получения гладкого теста., 6. Разогрейте вафельницу до рабочей температуры. Если необходимо, смажьте её небольшим количеством масла., 7. Выложите тесто ложкой в вафельницу и пеките вафли 3–4 минуты до золотисто-шоколадного цвета., 8. Вафли готовы! Подавайте их с фруктами, сиропом или мороженым.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>ШОКОЛАДНЫЕ ВАФЛИ В ВАФЕЛЬНИЦЕ</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>`12 порций`</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>`25 мин`</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ingredient(name: Пшеничная мука, unit_value: 120, unit_name: гр), Ingredient(name: Какао-порошок, unit_value: 30, unit_name: гр), Ingredient(name: Сахар, unit_value: 90, unit_name: гр), Ingredient(name: Разрыхлитель, unit_value: 1, unit_name: ч.л.), Ingredient(name: Сливочное масло, unit_value: 60, unit_name: гр), Ingredient(name: Яйца, unit_value: 2, unit_name: шт), Ingredient(name: Молоко, unit_value: 150, unit_name: мл), Ingredient(name: Ванильный сахар, unit_value: 10, unit_name: гр)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1. Подготовьте все ингредиенты. Просейте муку, чтобы вафли получились нежными и воздушными., 2. В глубокой миске смешайте пшеничную муку, какао-порошок и разрыхлитель., 3. В отдельной посуде растопите сливочное масло на медленном огне или в микроволновке., 4. Добавьте к растопленному маслу сахар, ванильный сахар и яйца. Взбейте венчиком до однородной массы., 5. Постепенно введите молоко в яичную смесь, затем добавьте сухие ингредиенты. Перемешайте до получения гладкого теста., 6. Разогрейте вафельницу до рабочей температуры. Если необходимо, смажьте её небольшим количеством масла., 7. Выложите тесто ложкой в вафельницу и пеките вафли 3–4 минуты до золотисто-шоколадного цвета., 8. Вафли готовы! Подавайте их с фруктами, сиропом или мороженым.</t>
         </is>
       </c>
     </row>

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cb6ec5147cfa11ef83a11c9957818fb1</t>
+          <t>ca5977ea7cfc11efbcba1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cb6ec51d7cfa11ef896f1c9957818fb1</t>
+          <t>ca599f157cfc11ef90801c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,12 +456,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ca5977ea7cfc11efbcba1c9957818fb1</t>
+          <t>f1e8112c844111ef87201c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ingredient(name: Пшеничная мука, unit_value: 100, unit_name: гр), Ingredient(name: Сахар, unit_value: 80, unit_name: гр), Ingredient(name: Сливочное масло, unit_value: 70, unit_name: гр), Ingredient(name: Яйца, unit_value: 1, unit_name: шт), Ingredient(name: Ванилин(щепотка), unit_value: 5, unit_name: гр)</t>
+          <t>Ingredient(name: Пшеничная мука, unit_value: 100, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Пшеничная мука, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Сахар, unit_value: 80, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Сахар, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Сливочное масло, unit_value: 70, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Сливочное масло, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Яйца, unit_value: 1, range: Range(unit: шт, factor: 1), nomenclature: Nomenclature(full_name: Яйца, group: Group_nomenclature(name: Сырьё), range: Range(unit: шт, factor: 1))), Ingredient(name: Ванилин(щепотка), unit_value: 5, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Ванилин(щепотка), group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1)))</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,12 +488,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ca599f157cfc11ef90801c9957818fb1</t>
+          <t>f1e81155844111efa61b1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ingredient(name: Пшеничная мука, unit_value: 120, unit_name: гр), Ingredient(name: Какао-порошок, unit_value: 30, unit_name: гр), Ingredient(name: Сахар, unit_value: 90, unit_name: гр), Ingredient(name: Разрыхлитель, unit_value: 1, unit_name: ч.л.), Ingredient(name: Сливочное масло, unit_value: 60, unit_name: гр), Ingredient(name: Яйца, unit_value: 2, unit_name: шт), Ingredient(name: Молоко, unit_value: 150, unit_name: мл), Ingredient(name: Ванильный сахар, unit_value: 10, unit_name: гр)</t>
+          <t>Ingredient(name: Пшеничная мука, unit_value: 120, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Пшеничная мука, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Какао-порошок, unit_value: 30, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Какао-порошок, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Сахар, unit_value: 90, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Сахар, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Разрыхлитель, unit_value: 1, range: Range(unit: ч.л., factor: 1), nomenclature: Nomenclature(full_name: Разрыхлитель, group: Group_nomenclature(name: Сырьё), range: Range(unit: ч.л., factor: 1))), Ingredient(name: Сливочное масло, unit_value: 60, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Сливочное масло, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1))), Ingredient(name: Яйца, unit_value: 2, range: Range(unit: шт, factor: 1), nomenclature: Nomenclature(full_name: Яйца, group: Group_nomenclature(name: Сырьё), range: Range(unit: шт, factor: 1))), Ingredient(name: Молоко, unit_value: 150, range: Range(unit: мл, factor: 1), nomenclature: Nomenclature(full_name: Молоко, group: Group_nomenclature(name: Сырьё), range: Range(unit: мл, factor: 1))), Ingredient(name: Ванильный сахар, unit_value: 10, range: Range(unit: гр, factor: 1), nomenclature: Nomenclature(full_name: Ванильный сахар, group: Group_nomenclature(name: Сырьё), range: Range(unit: гр, factor: 1)))</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f1e8112c844111ef87201c9957818fb1</t>
+          <t>ef23f3c088ec11ef922d1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>f1e81155844111efa61b1c9957818fb1</t>
+          <t>ef240dfb88ec11efa5c81c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ef23f3c088ec11ef922d1c9957818fb1</t>
+          <t>f1e8112c844111ef87201c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ef240dfb88ec11efa5c81c9957818fb1</t>
+          <t>f1e81155844111efa61b1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ef23f3c088ec11ef922d1c9957818fb1</t>
+          <t>d9ba49d988ed11efb3e41c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ef240dfb88ec11efa5c81c9957818fb1</t>
+          <t>d9ba4a0288ed11ef81371c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d9ba49d988ed11efb3e41c9957818fb1</t>
+          <t>ed0d6326896811efb02c1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>d9ba4a0288ed11ef81371c9957818fb1</t>
+          <t>ed0d80a4896811efb4921c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ed0d6326896811efb02c1c9957818fb1</t>
+          <t>043701168a9011ef8b411c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ed0d80a4896811efb4921c9957818fb1</t>
+          <t>0437013f8a9011ef8da11c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>043701168a9011ef8b411c9957818fb1</t>
+          <t>93f6f99493f711ef9ab61c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0437013f8a9011ef8da11c9957818fb1</t>
+          <t>93f720a593f711efae811c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>93f6f99493f711ef9ab61c9957818fb1</t>
+          <t>61a756a8991411ef9bff1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>93f720a593f711efae811c9957818fb1</t>
+          <t>61a756d1991411efac6b1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61a756a8991411ef9bff1c9957818fb1</t>
+          <t>31bf3c339a4811efadd11c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>61a756d1991411efac6b1c9957818fb1</t>
+          <t>31bf3c5c9a4811ef9f861c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31bf3c339a4811efadd11c9957818fb1</t>
+          <t>9f6ff3449b1c11ef83fd1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31bf3c5c9a4811ef9f861c9957818fb1</t>
+          <t>9f701a499b1c11ef94b41c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9f6ff3449b1c11ef83fd1c9957818fb1</t>
+          <t>a147c7fc9f6c11efa2a61c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9f701a499b1c11ef94b41c9957818fb1</t>
+          <t>a147c8259f6c11ef844f1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a147c7fc9f6c11efa2a61c9957818fb1</t>
+          <t>daf4b9f2a42311ef99831c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a147c8259f6c11ef844f1c9957818fb1</t>
+          <t>daf4ba1ba42311efa1751c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>daf4b9f2a42311ef99831c9957818fb1</t>
+          <t>cfb41042a4f411ef85ed1c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>daf4ba1ba42311efa1751c9957818fb1</t>
+          <t>cfb4106ba4f411efa1ea1c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cfb41042a4f411ef85ed1c9957818fb1</t>
+          <t>a44bbea2a4f811efbd901c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cfb4106ba4f411efa1ea1c9957818fb1</t>
+          <t>a44be5a4a4f811ef8c501c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/reports/receipts_report.xlsx
+++ b/data/reports/receipts_report.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a44bbea2a4f811efbd901c9957818fb1</t>
+          <t>be88cb89a9a611ef99561c9957818fb1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a44be5a4a4f811ef8c501c9957818fb1</t>
+          <t>be88cbb2a9a611ef92781c9957818fb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
